--- a/0-varios/Archivos-Office/Eventos.xlsx
+++ b/0-varios/Archivos-Office/Eventos.xlsx
@@ -387,6 +387,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1">
